--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -794,7 +794,8 @@
     <t>Outpat.VExam.ExamIEN</t>
   </si>
   <si>
-    <t>PhysicalExam.PhysExamCode,PhysicalExam.PhysExamCode[PhysExam].Description</t>
+    <t>PhysicalExam.PhysExamCode
+PhysicalExam.PhysExamCode[PhysExam].Description</t>
   </si>
   <si>
     <t>Observation.code.coding:va-code.id</t>
@@ -1100,10 +1101,14 @@
     <t>1583: reference based on V EXAM - VISIT (9000010.13-.03)</t>
   </si>
   <si>
-    <t>Outpat.VExam.VisitDateTime,Outpat.VExam.VisitIEN</t>
-  </si>
-  <si>
-    <t>PhysicalExam.EncounterNumber,PhysicalExam.EnteredAt,PhysicalExam.EnteredBy,PhysicalExam.EnteredOn</t>
+    <t>Outpat.VExam.VisitDateTime
+Outpat.VExam.VisitIEN</t>
+  </si>
+  <si>
+    <t>PhysicalExam.EncounterNumber
+PhysicalExam.EnteredAt
+PhysicalExam.EnteredBy
+PhysicalExam.EnteredOn</t>
   </si>
   <si>
     <t>Event.context</t>
@@ -2402,8 +2407,8 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="123.18359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="42.28515625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.47265625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="37.671875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="49.5390625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="42" max="42" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-ObservationEXAM.xlsx
+++ b/docs/StructureDefinition-ObservationEXAM.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
